--- a/Pae.Web/Pae.web/Pae.web/wwwroot/files/AGROINDUSTRIAL DE LA AMAZONIA.xlsx
+++ b/Pae.Web/Pae.web/Pae.web/wwwroot/files/AGROINDUSTRIAL DE LA AMAZONIA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="578">
   <si>
     <t>JOHAN ALEXIS HERRERA GUEVARA</t>
   </si>
@@ -1747,6 +1747,9 @@
   </si>
   <si>
     <t>MESA4</t>
+  </si>
+  <si>
+    <t>Entrega 1</t>
   </si>
 </sst>
 </file>
@@ -2161,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E565"/>
+  <dimension ref="A1:F565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
-      <selection activeCell="E376" sqref="E376:E565"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,7 +2177,7 @@
     <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>1</v>
       </c>
@@ -2190,8 +2193,11 @@
       <c r="E1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -2207,8 +2213,11 @@
       <c r="E2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -2224,8 +2233,11 @@
       <c r="E3" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -2241,8 +2253,11 @@
       <c r="E4" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>5</v>
       </c>
@@ -2258,8 +2273,11 @@
       <c r="E5" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -2275,8 +2293,11 @@
       <c r="E6" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -2292,8 +2313,11 @@
       <c r="E7" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -2309,8 +2333,11 @@
       <c r="E8" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>9</v>
       </c>
@@ -2326,8 +2353,11 @@
       <c r="E9" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -2343,8 +2373,11 @@
       <c r="E10" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>11</v>
       </c>
@@ -2360,8 +2393,11 @@
       <c r="E11" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -2377,8 +2413,11 @@
       <c r="E12" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -2394,8 +2433,11 @@
       <c r="E13" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>14</v>
       </c>
@@ -2411,8 +2453,11 @@
       <c r="E14" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>15</v>
       </c>
@@ -2428,8 +2473,11 @@
       <c r="E15" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -2445,8 +2493,11 @@
       <c r="E16" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>17</v>
       </c>
@@ -2462,8 +2513,11 @@
       <c r="E17" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>18</v>
       </c>
@@ -2479,8 +2533,11 @@
       <c r="E18" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -2496,8 +2553,11 @@
       <c r="E19" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>20</v>
       </c>
@@ -2513,8 +2573,11 @@
       <c r="E20" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>21</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="E21" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>22</v>
       </c>
@@ -2547,8 +2613,11 @@
       <c r="E22" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>23</v>
       </c>
@@ -2564,8 +2633,11 @@
       <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>24</v>
       </c>
@@ -2581,8 +2653,11 @@
       <c r="E24" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -2598,8 +2673,11 @@
       <c r="E25" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>26</v>
       </c>
@@ -2615,8 +2693,11 @@
       <c r="E26" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>27</v>
       </c>
@@ -2632,8 +2713,11 @@
       <c r="E27" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>28</v>
       </c>
@@ -2649,8 +2733,11 @@
       <c r="E28" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>29</v>
       </c>
@@ -2666,8 +2753,11 @@
       <c r="E29" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>30</v>
       </c>
@@ -2683,8 +2773,11 @@
       <c r="E30" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>31</v>
       </c>
@@ -2700,8 +2793,11 @@
       <c r="E31" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>32</v>
       </c>
@@ -2717,8 +2813,11 @@
       <c r="E32" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>33</v>
       </c>
@@ -2734,8 +2833,11 @@
       <c r="E33" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>34</v>
       </c>
@@ -2751,8 +2853,11 @@
       <c r="E34" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>35</v>
       </c>
@@ -2768,8 +2873,11 @@
       <c r="E35" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>36</v>
       </c>
@@ -2785,8 +2893,11 @@
       <c r="E36" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>37</v>
       </c>
@@ -2802,8 +2913,11 @@
       <c r="E37" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>38</v>
       </c>
@@ -2819,8 +2933,11 @@
       <c r="E38" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>39</v>
       </c>
@@ -2836,8 +2953,11 @@
       <c r="E39" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F39" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>40</v>
       </c>
@@ -2853,8 +2973,11 @@
       <c r="E40" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F40" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>41</v>
       </c>
@@ -2870,8 +2993,11 @@
       <c r="E41" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>42</v>
       </c>
@@ -2887,8 +3013,11 @@
       <c r="E42" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43</v>
       </c>
@@ -2904,8 +3033,11 @@
       <c r="E43" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F43" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>44</v>
       </c>
@@ -2921,8 +3053,11 @@
       <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>45</v>
       </c>
@@ -2938,8 +3073,11 @@
       <c r="E45" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F45" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>46</v>
       </c>
@@ -2955,8 +3093,11 @@
       <c r="E46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F46" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>47</v>
       </c>
@@ -2972,8 +3113,11 @@
       <c r="E47" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>48</v>
       </c>
@@ -2989,8 +3133,11 @@
       <c r="E48" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F48" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>49</v>
       </c>
@@ -3006,8 +3153,11 @@
       <c r="E49" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F49" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>50</v>
       </c>
@@ -3023,8 +3173,11 @@
       <c r="E50" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>51</v>
       </c>
@@ -3040,8 +3193,11 @@
       <c r="E51" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F51" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>52</v>
       </c>
@@ -3057,8 +3213,11 @@
       <c r="E52" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F52" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>53</v>
       </c>
@@ -3074,8 +3233,11 @@
       <c r="E53" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>54</v>
       </c>
@@ -3091,8 +3253,11 @@
       <c r="E54" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F54" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>55</v>
       </c>
@@ -3108,8 +3273,11 @@
       <c r="E55" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F55" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>56</v>
       </c>
@@ -3125,8 +3293,11 @@
       <c r="E56" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>57</v>
       </c>
@@ -3142,8 +3313,11 @@
       <c r="E57" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F57" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>58</v>
       </c>
@@ -3159,8 +3333,11 @@
       <c r="E58" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F58" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -3176,8 +3353,11 @@
       <c r="E59" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>60</v>
       </c>
@@ -3193,8 +3373,11 @@
       <c r="E60" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F60" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>61</v>
       </c>
@@ -3210,8 +3393,11 @@
       <c r="E61" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F61" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>62</v>
       </c>
@@ -3227,8 +3413,11 @@
       <c r="E62" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>63</v>
       </c>
@@ -3244,8 +3433,11 @@
       <c r="E63" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F63" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>64</v>
       </c>
@@ -3261,8 +3453,11 @@
       <c r="E64" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F64" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>65</v>
       </c>
@@ -3278,8 +3473,11 @@
       <c r="E65" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>66</v>
       </c>
@@ -3295,8 +3493,11 @@
       <c r="E66" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F66" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>67</v>
       </c>
@@ -3312,8 +3513,11 @@
       <c r="E67" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F67" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>68</v>
       </c>
@@ -3329,8 +3533,11 @@
       <c r="E68" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>69</v>
       </c>
@@ -3346,8 +3553,11 @@
       <c r="E69" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F69" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>70</v>
       </c>
@@ -3363,8 +3573,11 @@
       <c r="E70" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F70" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>71</v>
       </c>
@@ -3380,8 +3593,11 @@
       <c r="E71" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>72</v>
       </c>
@@ -3397,8 +3613,11 @@
       <c r="E72" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F72" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>73</v>
       </c>
@@ -3414,8 +3633,11 @@
       <c r="E73" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F73" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>74</v>
       </c>
@@ -3431,8 +3653,11 @@
       <c r="E74" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>75</v>
       </c>
@@ -3448,8 +3673,11 @@
       <c r="E75" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F75" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>76</v>
       </c>
@@ -3465,8 +3693,11 @@
       <c r="E76" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F76" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>77</v>
       </c>
@@ -3482,8 +3713,11 @@
       <c r="E77" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>78</v>
       </c>
@@ -3499,8 +3733,11 @@
       <c r="E78" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F78" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>79</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="E79" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F79" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>80</v>
       </c>
@@ -3533,8 +3773,11 @@
       <c r="E80" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>81</v>
       </c>
@@ -3550,8 +3793,11 @@
       <c r="E81" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F81" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>82</v>
       </c>
@@ -3567,8 +3813,11 @@
       <c r="E82" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F82" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>83</v>
       </c>
@@ -3584,8 +3833,11 @@
       <c r="E83" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>84</v>
       </c>
@@ -3601,8 +3853,11 @@
       <c r="E84" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F84" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>85</v>
       </c>
@@ -3618,8 +3873,11 @@
       <c r="E85" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F85" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>86</v>
       </c>
@@ -3635,8 +3893,11 @@
       <c r="E86" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>87</v>
       </c>
@@ -3652,8 +3913,11 @@
       <c r="E87" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>88</v>
       </c>
@@ -3669,8 +3933,11 @@
       <c r="E88" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F88" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>1</v>
       </c>
@@ -3686,8 +3953,11 @@
       <c r="E89" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F89" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>2</v>
       </c>
@@ -3703,8 +3973,11 @@
       <c r="E90" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>3</v>
       </c>
@@ -3720,8 +3993,11 @@
       <c r="E91" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F91" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>4</v>
       </c>
@@ -3737,8 +4013,11 @@
       <c r="E92" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F92" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>5</v>
       </c>
@@ -3754,8 +4033,11 @@
       <c r="E93" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>6</v>
       </c>
@@ -3771,8 +4053,11 @@
       <c r="E94" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F94" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>7</v>
       </c>
@@ -3788,8 +4073,11 @@
       <c r="E95" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F95" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>8</v>
       </c>
@@ -3805,8 +4093,11 @@
       <c r="E96" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>9</v>
       </c>
@@ -3822,8 +4113,11 @@
       <c r="E97" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F97" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>10</v>
       </c>
@@ -3839,8 +4133,11 @@
       <c r="E98" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F98" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>11</v>
       </c>
@@ -3856,8 +4153,11 @@
       <c r="E99" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>12</v>
       </c>
@@ -3873,8 +4173,11 @@
       <c r="E100" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F100" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>13</v>
       </c>
@@ -3890,8 +4193,11 @@
       <c r="E101" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F101" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>14</v>
       </c>
@@ -3907,8 +4213,11 @@
       <c r="E102" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>15</v>
       </c>
@@ -3924,8 +4233,11 @@
       <c r="E103" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F103" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>16</v>
       </c>
@@ -3941,8 +4253,11 @@
       <c r="E104" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F104" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>17</v>
       </c>
@@ -3958,8 +4273,11 @@
       <c r="E105" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>18</v>
       </c>
@@ -3975,8 +4293,11 @@
       <c r="E106" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F106" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>19</v>
       </c>
@@ -3992,8 +4313,11 @@
       <c r="E107" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F107" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>20</v>
       </c>
@@ -4009,8 +4333,11 @@
       <c r="E108" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>21</v>
       </c>
@@ -4026,8 +4353,11 @@
       <c r="E109" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F109" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>22</v>
       </c>
@@ -4043,8 +4373,11 @@
       <c r="E110" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F110" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>23</v>
       </c>
@@ -4060,8 +4393,11 @@
       <c r="E111" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>24</v>
       </c>
@@ -4077,8 +4413,11 @@
       <c r="E112" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F112" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>25</v>
       </c>
@@ -4094,8 +4433,11 @@
       <c r="E113" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F113" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>26</v>
       </c>
@@ -4111,8 +4453,11 @@
       <c r="E114" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>27</v>
       </c>
@@ -4128,8 +4473,11 @@
       <c r="E115" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F115" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>28</v>
       </c>
@@ -4145,8 +4493,11 @@
       <c r="E116" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F116" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>29</v>
       </c>
@@ -4162,8 +4513,11 @@
       <c r="E117" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>30</v>
       </c>
@@ -4179,8 +4533,11 @@
       <c r="E118" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F118" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>31</v>
       </c>
@@ -4196,8 +4553,11 @@
       <c r="E119" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F119" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>32</v>
       </c>
@@ -4213,8 +4573,11 @@
       <c r="E120" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>33</v>
       </c>
@@ -4230,8 +4593,11 @@
       <c r="E121" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F121" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>34</v>
       </c>
@@ -4247,8 +4613,11 @@
       <c r="E122" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F122" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>35</v>
       </c>
@@ -4264,8 +4633,11 @@
       <c r="E123" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>36</v>
       </c>
@@ -4281,8 +4653,11 @@
       <c r="E124" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F124" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>37</v>
       </c>
@@ -4298,8 +4673,11 @@
       <c r="E125" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F125" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>38</v>
       </c>
@@ -4315,8 +4693,11 @@
       <c r="E126" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>39</v>
       </c>
@@ -4332,8 +4713,11 @@
       <c r="E127" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F127" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>40</v>
       </c>
@@ -4349,8 +4733,11 @@
       <c r="E128" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F128" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>41</v>
       </c>
@@ -4366,8 +4753,11 @@
       <c r="E129" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>42</v>
       </c>
@@ -4383,8 +4773,11 @@
       <c r="E130" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F130" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>43</v>
       </c>
@@ -4400,8 +4793,11 @@
       <c r="E131" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F131" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>44</v>
       </c>
@@ -4417,8 +4813,11 @@
       <c r="E132" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>45</v>
       </c>
@@ -4434,8 +4833,11 @@
       <c r="E133" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F133" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>46</v>
       </c>
@@ -4451,8 +4853,11 @@
       <c r="E134" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F134" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>47</v>
       </c>
@@ -4468,8 +4873,11 @@
       <c r="E135" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>48</v>
       </c>
@@ -4485,8 +4893,11 @@
       <c r="E136" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F136" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>49</v>
       </c>
@@ -4502,8 +4913,11 @@
       <c r="E137" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F137" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>50</v>
       </c>
@@ -4519,8 +4933,11 @@
       <c r="E138" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>51</v>
       </c>
@@ -4536,8 +4953,11 @@
       <c r="E139" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F139" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>52</v>
       </c>
@@ -4553,8 +4973,11 @@
       <c r="E140" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F140" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>53</v>
       </c>
@@ -4570,8 +4993,11 @@
       <c r="E141" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>54</v>
       </c>
@@ -4587,8 +5013,11 @@
       <c r="E142" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F142" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>55</v>
       </c>
@@ -4604,8 +5033,11 @@
       <c r="E143" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F143" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>56</v>
       </c>
@@ -4621,8 +5053,11 @@
       <c r="E144" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>57</v>
       </c>
@@ -4638,8 +5073,11 @@
       <c r="E145" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F145" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>58</v>
       </c>
@@ -4655,8 +5093,11 @@
       <c r="E146" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F146" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>59</v>
       </c>
@@ -4672,8 +5113,11 @@
       <c r="E147" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>60</v>
       </c>
@@ -4689,8 +5133,11 @@
       <c r="E148" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F148" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>61</v>
       </c>
@@ -4706,8 +5153,11 @@
       <c r="E149" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F149" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>62</v>
       </c>
@@ -4723,8 +5173,11 @@
       <c r="E150" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>63</v>
       </c>
@@ -4740,8 +5193,11 @@
       <c r="E151" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F151" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>64</v>
       </c>
@@ -4757,8 +5213,11 @@
       <c r="E152" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F152" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>65</v>
       </c>
@@ -4774,8 +5233,11 @@
       <c r="E153" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>66</v>
       </c>
@@ -4791,8 +5253,11 @@
       <c r="E154" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F154" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>67</v>
       </c>
@@ -4808,8 +5273,11 @@
       <c r="E155" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F155" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>68</v>
       </c>
@@ -4825,8 +5293,11 @@
       <c r="E156" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>69</v>
       </c>
@@ -4842,8 +5313,11 @@
       <c r="E157" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F157" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>70</v>
       </c>
@@ -4859,8 +5333,11 @@
       <c r="E158" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F158" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>71</v>
       </c>
@@ -4876,8 +5353,11 @@
       <c r="E159" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>72</v>
       </c>
@@ -4893,8 +5373,11 @@
       <c r="E160" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F160" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>73</v>
       </c>
@@ -4910,8 +5393,11 @@
       <c r="E161" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F161" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>74</v>
       </c>
@@ -4927,8 +5413,11 @@
       <c r="E162" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>75</v>
       </c>
@@ -4944,8 +5433,11 @@
       <c r="E163" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F163" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>76</v>
       </c>
@@ -4961,8 +5453,11 @@
       <c r="E164" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F164" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>77</v>
       </c>
@@ -4978,8 +5473,11 @@
       <c r="E165" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>78</v>
       </c>
@@ -4995,8 +5493,11 @@
       <c r="E166" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F166" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>79</v>
       </c>
@@ -5012,8 +5513,11 @@
       <c r="E167" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F167" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>80</v>
       </c>
@@ -5029,8 +5533,11 @@
       <c r="E168" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F168" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>81</v>
       </c>
@@ -5046,8 +5553,11 @@
       <c r="E169" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F169" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>82</v>
       </c>
@@ -5063,8 +5573,11 @@
       <c r="E170" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F170" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>83</v>
       </c>
@@ -5080,8 +5593,11 @@
       <c r="E171" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>84</v>
       </c>
@@ -5097,8 +5613,11 @@
       <c r="E172" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F172" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>85</v>
       </c>
@@ -5114,8 +5633,11 @@
       <c r="E173" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F173" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>86</v>
       </c>
@@ -5131,8 +5653,11 @@
       <c r="E174" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>87</v>
       </c>
@@ -5148,8 +5673,11 @@
       <c r="E175" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F175" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>88</v>
       </c>
@@ -5165,8 +5693,11 @@
       <c r="E176" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F176" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>89</v>
       </c>
@@ -5182,8 +5713,11 @@
       <c r="E177" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F177" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>90</v>
       </c>
@@ -5199,8 +5733,11 @@
       <c r="E178" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F178" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>91</v>
       </c>
@@ -5216,8 +5753,11 @@
       <c r="E179" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F179" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>92</v>
       </c>
@@ -5233,8 +5773,11 @@
       <c r="E180" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F180" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>93</v>
       </c>
@@ -5250,8 +5793,11 @@
       <c r="E181" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F181" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>94</v>
       </c>
@@ -5267,8 +5813,11 @@
       <c r="E182" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F182" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>95</v>
       </c>
@@ -5284,8 +5833,11 @@
       <c r="E183" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F183" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>96</v>
       </c>
@@ -5301,8 +5853,11 @@
       <c r="E184" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F184" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>97</v>
       </c>
@@ -5318,8 +5873,11 @@
       <c r="E185" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F185" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>98</v>
       </c>
@@ -5335,8 +5893,11 @@
       <c r="E186" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F186" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>99</v>
       </c>
@@ -5352,8 +5913,11 @@
       <c r="E187" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F187" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>100</v>
       </c>
@@ -5369,8 +5933,11 @@
       <c r="E188" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F188" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>101</v>
       </c>
@@ -5386,8 +5953,11 @@
       <c r="E189" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F189" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>102</v>
       </c>
@@ -5403,8 +5973,11 @@
       <c r="E190" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F190" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>103</v>
       </c>
@@ -5420,8 +5993,11 @@
       <c r="E191" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F191" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>104</v>
       </c>
@@ -5437,8 +6013,11 @@
       <c r="E192" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F192" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>105</v>
       </c>
@@ -5454,8 +6033,11 @@
       <c r="E193" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F193" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>106</v>
       </c>
@@ -5471,8 +6053,11 @@
       <c r="E194" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F194" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>107</v>
       </c>
@@ -5488,8 +6073,11 @@
       <c r="E195" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F195" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>108</v>
       </c>
@@ -5505,8 +6093,11 @@
       <c r="E196" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F196" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>109</v>
       </c>
@@ -5522,8 +6113,11 @@
       <c r="E197" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F197" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>110</v>
       </c>
@@ -5539,8 +6133,11 @@
       <c r="E198" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F198" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>111</v>
       </c>
@@ -5556,8 +6153,11 @@
       <c r="E199" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F199" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>112</v>
       </c>
@@ -5573,8 +6173,11 @@
       <c r="E200" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F200" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>113</v>
       </c>
@@ -5590,8 +6193,11 @@
       <c r="E201" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F201" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>114</v>
       </c>
@@ -5607,8 +6213,11 @@
       <c r="E202" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F202" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>115</v>
       </c>
@@ -5624,8 +6233,11 @@
       <c r="E203" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F203" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>116</v>
       </c>
@@ -5641,8 +6253,11 @@
       <c r="E204" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F204" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>117</v>
       </c>
@@ -5658,8 +6273,11 @@
       <c r="E205" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F205" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>118</v>
       </c>
@@ -5675,8 +6293,11 @@
       <c r="E206" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F206" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>119</v>
       </c>
@@ -5692,8 +6313,11 @@
       <c r="E207" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F207" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>120</v>
       </c>
@@ -5709,8 +6333,11 @@
       <c r="E208" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F208" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>121</v>
       </c>
@@ -5726,8 +6353,11 @@
       <c r="E209" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F209" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>122</v>
       </c>
@@ -5743,8 +6373,11 @@
       <c r="E210" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F210" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
         <v>123</v>
       </c>
@@ -5760,8 +6393,11 @@
       <c r="E211" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F211" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>124</v>
       </c>
@@ -5777,8 +6413,11 @@
       <c r="E212" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F212" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>125</v>
       </c>
@@ -5794,8 +6433,11 @@
       <c r="E213" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F213" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>126</v>
       </c>
@@ -5811,8 +6453,11 @@
       <c r="E214" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F214" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>127</v>
       </c>
@@ -5828,8 +6473,11 @@
       <c r="E215" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F215" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>128</v>
       </c>
@@ -5845,8 +6493,11 @@
       <c r="E216" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F216" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
         <v>129</v>
       </c>
@@ -5862,8 +6513,11 @@
       <c r="E217" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F217" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>130</v>
       </c>
@@ -5879,8 +6533,11 @@
       <c r="E218" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F218" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>131</v>
       </c>
@@ -5896,8 +6553,11 @@
       <c r="E219" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F219" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>132</v>
       </c>
@@ -5913,8 +6573,11 @@
       <c r="E220" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F220" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>133</v>
       </c>
@@ -5930,8 +6593,11 @@
       <c r="E221" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F221" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>134</v>
       </c>
@@ -5947,8 +6613,11 @@
       <c r="E222" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F222" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
         <v>135</v>
       </c>
@@ -5964,8 +6633,11 @@
       <c r="E223" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F223" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>136</v>
       </c>
@@ -5981,8 +6653,11 @@
       <c r="E224" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F224" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>137</v>
       </c>
@@ -5998,8 +6673,11 @@
       <c r="E225" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F225" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
         <v>138</v>
       </c>
@@ -6015,8 +6693,11 @@
       <c r="E226" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F226" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>139</v>
       </c>
@@ -6032,8 +6713,11 @@
       <c r="E227" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F227" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>140</v>
       </c>
@@ -6049,8 +6733,11 @@
       <c r="E228" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F228" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>141</v>
       </c>
@@ -6066,8 +6753,11 @@
       <c r="E229" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F229" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>142</v>
       </c>
@@ -6083,8 +6773,11 @@
       <c r="E230" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F230" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>143</v>
       </c>
@@ -6100,8 +6793,11 @@
       <c r="E231" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F231" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>144</v>
       </c>
@@ -6117,8 +6813,11 @@
       <c r="E232" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F232" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>145</v>
       </c>
@@ -6134,8 +6833,11 @@
       <c r="E233" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F233" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>146</v>
       </c>
@@ -6151,8 +6853,11 @@
       <c r="E234" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F234" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>147</v>
       </c>
@@ -6168,8 +6873,11 @@
       <c r="E235" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F235" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>148</v>
       </c>
@@ -6185,8 +6893,11 @@
       <c r="E236" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F236" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>149</v>
       </c>
@@ -6202,8 +6913,11 @@
       <c r="E237" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F237" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>150</v>
       </c>
@@ -6219,8 +6933,11 @@
       <c r="E238" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F238" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>151</v>
       </c>
@@ -6236,8 +6953,11 @@
       <c r="E239" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F239" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>152</v>
       </c>
@@ -6253,8 +6973,11 @@
       <c r="E240" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F240" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>153</v>
       </c>
@@ -6270,8 +6993,11 @@
       <c r="E241" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F241" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>154</v>
       </c>
@@ -6287,8 +7013,11 @@
       <c r="E242" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F242" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>155</v>
       </c>
@@ -6304,8 +7033,11 @@
       <c r="E243" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F243" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
         <v>156</v>
       </c>
@@ -6321,8 +7053,11 @@
       <c r="E244" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F244" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>157</v>
       </c>
@@ -6338,8 +7073,11 @@
       <c r="E245" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F245" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>158</v>
       </c>
@@ -6355,8 +7093,11 @@
       <c r="E246" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F246" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
         <v>159</v>
       </c>
@@ -6372,8 +7113,11 @@
       <c r="E247" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F247" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>160</v>
       </c>
@@ -6389,8 +7133,11 @@
       <c r="E248" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F248" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>161</v>
       </c>
@@ -6406,8 +7153,11 @@
       <c r="E249" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F249" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
         <v>162</v>
       </c>
@@ -6423,8 +7173,11 @@
       <c r="E250" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F250" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>163</v>
       </c>
@@ -6440,8 +7193,11 @@
       <c r="E251" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F251" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>164</v>
       </c>
@@ -6457,8 +7213,11 @@
       <c r="E252" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F252" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
         <v>165</v>
       </c>
@@ -6474,8 +7233,11 @@
       <c r="E253" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F253" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>166</v>
       </c>
@@ -6491,8 +7253,11 @@
       <c r="E254" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F254" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>167</v>
       </c>
@@ -6508,8 +7273,11 @@
       <c r="E255" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F255" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
         <v>168</v>
       </c>
@@ -6525,8 +7293,11 @@
       <c r="E256" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F256" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>169</v>
       </c>
@@ -6542,8 +7313,11 @@
       <c r="E257" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F257" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>170</v>
       </c>
@@ -6559,8 +7333,11 @@
       <c r="E258" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F258" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
         <v>171</v>
       </c>
@@ -6576,8 +7353,11 @@
       <c r="E259" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F259" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>172</v>
       </c>
@@ -6593,8 +7373,11 @@
       <c r="E260" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F260" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>173</v>
       </c>
@@ -6610,8 +7393,11 @@
       <c r="E261" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F261" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
         <v>174</v>
       </c>
@@ -6627,8 +7413,11 @@
       <c r="E262" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F262" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>175</v>
       </c>
@@ -6644,8 +7433,11 @@
       <c r="E263" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F263" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>176</v>
       </c>
@@ -6661,8 +7453,11 @@
       <c r="E264" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F264" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>177</v>
       </c>
@@ -6678,8 +7473,11 @@
       <c r="E265" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F265" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>178</v>
       </c>
@@ -6695,8 +7493,11 @@
       <c r="E266" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F266" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>179</v>
       </c>
@@ -6712,8 +7513,11 @@
       <c r="E267" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F267" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>180</v>
       </c>
@@ -6729,8 +7533,11 @@
       <c r="E268" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F268" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>181</v>
       </c>
@@ -6746,8 +7553,11 @@
       <c r="E269" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F269" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>182</v>
       </c>
@@ -6763,8 +7573,11 @@
       <c r="E270" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F270" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>183</v>
       </c>
@@ -6780,8 +7593,11 @@
       <c r="E271" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F271" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>184</v>
       </c>
@@ -6797,8 +7613,11 @@
       <c r="E272" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F272" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>185</v>
       </c>
@@ -6814,8 +7633,11 @@
       <c r="E273" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F273" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
         <v>186</v>
       </c>
@@ -6831,8 +7653,11 @@
       <c r="E274" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F274" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>187</v>
       </c>
@@ -6848,8 +7673,11 @@
       <c r="E275" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F275" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>188</v>
       </c>
@@ -6865,8 +7693,11 @@
       <c r="E276" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F276" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
         <v>189</v>
       </c>
@@ -6882,8 +7713,11 @@
       <c r="E277" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F277" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>190</v>
       </c>
@@ -6899,8 +7733,11 @@
       <c r="E278" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F278" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>191</v>
       </c>
@@ -6916,8 +7753,11 @@
       <c r="E279" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F279" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
         <v>192</v>
       </c>
@@ -6933,8 +7773,11 @@
       <c r="E280" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F280" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>193</v>
       </c>
@@ -6950,8 +7793,11 @@
       <c r="E281" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F281" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>194</v>
       </c>
@@ -6967,8 +7813,11 @@
       <c r="E282" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F282" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
         <v>195</v>
       </c>
@@ -6984,8 +7833,11 @@
       <c r="E283" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F283" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>196</v>
       </c>
@@ -7001,8 +7853,11 @@
       <c r="E284" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F284" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>197</v>
       </c>
@@ -7018,8 +7873,11 @@
       <c r="E285" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F285" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
         <v>198</v>
       </c>
@@ -7035,8 +7893,11 @@
       <c r="E286" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F286" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>199</v>
       </c>
@@ -7052,8 +7913,11 @@
       <c r="E287" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F287" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
         <v>200</v>
       </c>
@@ -7069,8 +7933,11 @@
       <c r="E288" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F288" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
         <v>201</v>
       </c>
@@ -7086,8 +7953,11 @@
       <c r="E289" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F289" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>202</v>
       </c>
@@ -7103,8 +7973,11 @@
       <c r="E290" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F290" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>203</v>
       </c>
@@ -7120,8 +7993,11 @@
       <c r="E291" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F291" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>204</v>
       </c>
@@ -7137,8 +8013,11 @@
       <c r="E292" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F292" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>205</v>
       </c>
@@ -7154,8 +8033,11 @@
       <c r="E293" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F293" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>206</v>
       </c>
@@ -7171,8 +8053,11 @@
       <c r="E294" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F294" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
         <v>207</v>
       </c>
@@ -7188,8 +8073,11 @@
       <c r="E295" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F295" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>208</v>
       </c>
@@ -7205,8 +8093,11 @@
       <c r="E296" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F296" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>209</v>
       </c>
@@ -7222,8 +8113,11 @@
       <c r="E297" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F297" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
         <v>210</v>
       </c>
@@ -7239,8 +8133,11 @@
       <c r="E298" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F298" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>211</v>
       </c>
@@ -7256,8 +8153,11 @@
       <c r="E299" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F299" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <v>212</v>
       </c>
@@ -7273,8 +8173,11 @@
       <c r="E300" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F300" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
         <v>213</v>
       </c>
@@ -7290,8 +8193,11 @@
       <c r="E301" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F301" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>214</v>
       </c>
@@ -7307,8 +8213,11 @@
       <c r="E302" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F302" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
         <v>215</v>
       </c>
@@ -7324,8 +8233,11 @@
       <c r="E303" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F303" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5">
         <v>216</v>
       </c>
@@ -7341,8 +8253,11 @@
       <c r="E304" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F304" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>217</v>
       </c>
@@ -7358,8 +8273,11 @@
       <c r="E305" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F305" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <v>218</v>
       </c>
@@ -7375,8 +8293,11 @@
       <c r="E306" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F306" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5">
         <v>219</v>
       </c>
@@ -7392,8 +8313,11 @@
       <c r="E307" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F307" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>220</v>
       </c>
@@ -7409,8 +8333,11 @@
       <c r="E308" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F308" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>221</v>
       </c>
@@ -7426,8 +8353,11 @@
       <c r="E309" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F309" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5">
         <v>222</v>
       </c>
@@ -7443,8 +8373,11 @@
       <c r="E310" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F310" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>223</v>
       </c>
@@ -7460,8 +8393,11 @@
       <c r="E311" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F311" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>224</v>
       </c>
@@ -7477,8 +8413,11 @@
       <c r="E312" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F312" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5">
         <v>225</v>
       </c>
@@ -7494,8 +8433,11 @@
       <c r="E313" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F313" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>226</v>
       </c>
@@ -7511,8 +8453,11 @@
       <c r="E314" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F314" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>227</v>
       </c>
@@ -7528,8 +8473,11 @@
       <c r="E315" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F315" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5">
         <v>228</v>
       </c>
@@ -7545,8 +8493,11 @@
       <c r="E316" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F316" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>229</v>
       </c>
@@ -7562,8 +8513,11 @@
       <c r="E317" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F317" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <v>230</v>
       </c>
@@ -7579,8 +8533,11 @@
       <c r="E318" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F318" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5">
         <v>231</v>
       </c>
@@ -7596,8 +8553,11 @@
       <c r="E319" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F319" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>232</v>
       </c>
@@ -7613,8 +8573,11 @@
       <c r="E320" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F320" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>233</v>
       </c>
@@ -7630,8 +8593,11 @@
       <c r="E321" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F321" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5">
         <v>234</v>
       </c>
@@ -7647,8 +8613,11 @@
       <c r="E322" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F322" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>235</v>
       </c>
@@ -7664,8 +8633,11 @@
       <c r="E323" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F323" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <v>236</v>
       </c>
@@ -7681,8 +8653,11 @@
       <c r="E324" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F324" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5">
         <v>237</v>
       </c>
@@ -7698,8 +8673,11 @@
       <c r="E325" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F325" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>238</v>
       </c>
@@ -7715,8 +8693,11 @@
       <c r="E326" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F326" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>239</v>
       </c>
@@ -7732,8 +8713,11 @@
       <c r="E327" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F327" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5">
         <v>240</v>
       </c>
@@ -7749,8 +8733,11 @@
       <c r="E328" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F328" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>241</v>
       </c>
@@ -7766,8 +8753,11 @@
       <c r="E329" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F329" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
         <v>242</v>
       </c>
@@ -7783,8 +8773,11 @@
       <c r="E330" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F330" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5">
         <v>243</v>
       </c>
@@ -7800,8 +8793,11 @@
       <c r="E331" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F331" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>244</v>
       </c>
@@ -7817,8 +8813,11 @@
       <c r="E332" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F332" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <v>245</v>
       </c>
@@ -7834,8 +8833,11 @@
       <c r="E333" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F333" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5">
         <v>246</v>
       </c>
@@ -7851,8 +8853,11 @@
       <c r="E334" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F334" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>247</v>
       </c>
@@ -7868,8 +8873,11 @@
       <c r="E335" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F335" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
         <v>248</v>
       </c>
@@ -7885,8 +8893,11 @@
       <c r="E336" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F336" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5">
         <v>249</v>
       </c>
@@ -7902,8 +8913,11 @@
       <c r="E337" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F337" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>250</v>
       </c>
@@ -7919,8 +8933,11 @@
       <c r="E338" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F338" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>251</v>
       </c>
@@ -7936,8 +8953,11 @@
       <c r="E339" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F339" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5">
         <v>252</v>
       </c>
@@ -7953,8 +8973,11 @@
       <c r="E340" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F340" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>253</v>
       </c>
@@ -7970,8 +8993,11 @@
       <c r="E341" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F341" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
         <v>254</v>
       </c>
@@ -7987,8 +9013,11 @@
       <c r="E342" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F342" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5">
         <v>255</v>
       </c>
@@ -8004,8 +9033,11 @@
       <c r="E343" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F343" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>256</v>
       </c>
@@ -8021,8 +9053,11 @@
       <c r="E344" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F344" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <v>257</v>
       </c>
@@ -8038,8 +9073,11 @@
       <c r="E345" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F345" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5">
         <v>258</v>
       </c>
@@ -8055,8 +9093,11 @@
       <c r="E346" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F346" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>259</v>
       </c>
@@ -8072,8 +9113,11 @@
       <c r="E347" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F347" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
         <v>260</v>
       </c>
@@ -8089,8 +9133,11 @@
       <c r="E348" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F348" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5">
         <v>261</v>
       </c>
@@ -8106,8 +9153,11 @@
       <c r="E349" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F349" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>262</v>
       </c>
@@ -8123,8 +9173,11 @@
       <c r="E350" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F350" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
         <v>263</v>
       </c>
@@ -8140,8 +9193,11 @@
       <c r="E351" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F351" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5">
         <v>264</v>
       </c>
@@ -8157,8 +9213,11 @@
       <c r="E352" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F352" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>265</v>
       </c>
@@ -8174,8 +9233,11 @@
       <c r="E353" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F353" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
         <v>266</v>
       </c>
@@ -8191,8 +9253,11 @@
       <c r="E354" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F354" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5">
         <v>267</v>
       </c>
@@ -8208,8 +9273,11 @@
       <c r="E355" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F355" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>268</v>
       </c>
@@ -8225,8 +9293,11 @@
       <c r="E356" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F356" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
         <v>269</v>
       </c>
@@ -8242,8 +9313,11 @@
       <c r="E357" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F357" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5">
         <v>270</v>
       </c>
@@ -8259,8 +9333,11 @@
       <c r="E358" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F358" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>271</v>
       </c>
@@ -8276,8 +9353,11 @@
       <c r="E359" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F359" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
         <v>272</v>
       </c>
@@ -8293,8 +9373,11 @@
       <c r="E360" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F360" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5">
         <v>273</v>
       </c>
@@ -8310,8 +9393,11 @@
       <c r="E361" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F361" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>274</v>
       </c>
@@ -8327,8 +9413,11 @@
       <c r="E362" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F362" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <v>275</v>
       </c>
@@ -8344,8 +9433,11 @@
       <c r="E363" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F363" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5">
         <v>276</v>
       </c>
@@ -8361,8 +9453,11 @@
       <c r="E364" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F364" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>277</v>
       </c>
@@ -8378,8 +9473,11 @@
       <c r="E365" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F365" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
         <v>278</v>
       </c>
@@ -8395,8 +9493,11 @@
       <c r="E366" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F366" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5">
         <v>279</v>
       </c>
@@ -8412,8 +9513,11 @@
       <c r="E367" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F367" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>280</v>
       </c>
@@ -8429,8 +9533,11 @@
       <c r="E368" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F368" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
         <v>281</v>
       </c>
@@ -8446,8 +9553,11 @@
       <c r="E369" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F369" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5">
         <v>282</v>
       </c>
@@ -8463,8 +9573,11 @@
       <c r="E370" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F370" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>283</v>
       </c>
@@ -8480,8 +9593,11 @@
       <c r="E371" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F371" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <v>284</v>
       </c>
@@ -8497,8 +9613,11 @@
       <c r="E372" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F372" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5">
         <v>285</v>
       </c>
@@ -8514,8 +9633,11 @@
       <c r="E373" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F373" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>286</v>
       </c>
@@ -8531,8 +9653,11 @@
       <c r="E374" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F374" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5">
         <v>287</v>
       </c>
@@ -8548,8 +9673,11 @@
       <c r="E375" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F375" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>1</v>
       </c>
@@ -8565,8 +9693,11 @@
       <c r="E376" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F376" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
         <v>2</v>
       </c>
@@ -8582,8 +9713,11 @@
       <c r="E377" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F377" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5">
         <v>3</v>
       </c>
@@ -8599,8 +9733,11 @@
       <c r="E378" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F378" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>4</v>
       </c>
@@ -8616,8 +9753,11 @@
       <c r="E379" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F379" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
         <v>5</v>
       </c>
@@ -8633,8 +9773,11 @@
       <c r="E380" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F380" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5">
         <v>6</v>
       </c>
@@ -8650,8 +9793,11 @@
       <c r="E381" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F381" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
         <v>7</v>
       </c>
@@ -8667,8 +9813,11 @@
       <c r="E382" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F382" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
         <v>8</v>
       </c>
@@ -8684,8 +9833,11 @@
       <c r="E383" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F383" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5">
         <v>9</v>
       </c>
@@ -8701,8 +9853,11 @@
       <c r="E384" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F384" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
         <v>10</v>
       </c>
@@ -8718,8 +9873,11 @@
       <c r="E385" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F385" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
         <v>11</v>
       </c>
@@ -8735,8 +9893,11 @@
       <c r="E386" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F386" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5">
         <v>12</v>
       </c>
@@ -8752,8 +9913,11 @@
       <c r="E387" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F387" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
         <v>13</v>
       </c>
@@ -8769,8 +9933,11 @@
       <c r="E388" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F388" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <v>14</v>
       </c>
@@ -8786,8 +9953,11 @@
       <c r="E389" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F389" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5">
         <v>15</v>
       </c>
@@ -8803,8 +9973,11 @@
       <c r="E390" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F390" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>16</v>
       </c>
@@ -8820,8 +9993,11 @@
       <c r="E391" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F391" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
         <v>17</v>
       </c>
@@ -8837,8 +10013,11 @@
       <c r="E392" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F392" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5">
         <v>18</v>
       </c>
@@ -8854,8 +10033,11 @@
       <c r="E393" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F393" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>19</v>
       </c>
@@ -8871,8 +10053,11 @@
       <c r="E394" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F394" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <v>20</v>
       </c>
@@ -8888,8 +10073,11 @@
       <c r="E395" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F395" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5">
         <v>21</v>
       </c>
@@ -8905,8 +10093,11 @@
       <c r="E396" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F396" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>22</v>
       </c>
@@ -8922,8 +10113,11 @@
       <c r="E397" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F397" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
         <v>23</v>
       </c>
@@ -8939,8 +10133,11 @@
       <c r="E398" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F398" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5">
         <v>24</v>
       </c>
@@ -8956,8 +10153,11 @@
       <c r="E399" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F399" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
         <v>25</v>
       </c>
@@ -8973,8 +10173,11 @@
       <c r="E400" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F400" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <v>26</v>
       </c>
@@ -8990,8 +10193,11 @@
       <c r="E401" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F401" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5">
         <v>27</v>
       </c>
@@ -9007,8 +10213,11 @@
       <c r="E402" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F402" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
         <v>28</v>
       </c>
@@ -9024,8 +10233,11 @@
       <c r="E403" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F403" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
         <v>29</v>
       </c>
@@ -9041,8 +10253,11 @@
       <c r="E404" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F404" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5">
         <v>30</v>
       </c>
@@ -9058,8 +10273,11 @@
       <c r="E405" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F405" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
         <v>31</v>
       </c>
@@ -9075,8 +10293,11 @@
       <c r="E406" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F406" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
         <v>32</v>
       </c>
@@ -9092,8 +10313,11 @@
       <c r="E407" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F407" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="5">
         <v>33</v>
       </c>
@@ -9109,8 +10333,11 @@
       <c r="E408" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F408" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
         <v>34</v>
       </c>
@@ -9126,8 +10353,11 @@
       <c r="E409" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F409" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
         <v>35</v>
       </c>
@@ -9143,8 +10373,11 @@
       <c r="E410" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F410" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5">
         <v>36</v>
       </c>
@@ -9160,8 +10393,11 @@
       <c r="E411" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F411" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>37</v>
       </c>
@@ -9177,8 +10413,11 @@
       <c r="E412" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F412" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
         <v>38</v>
       </c>
@@ -9194,8 +10433,11 @@
       <c r="E413" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F413" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5">
         <v>39</v>
       </c>
@@ -9211,8 +10453,11 @@
       <c r="E414" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F414" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
         <v>40</v>
       </c>
@@ -9228,8 +10473,11 @@
       <c r="E415" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F415" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
         <v>41</v>
       </c>
@@ -9245,8 +10493,11 @@
       <c r="E416" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F416" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5">
         <v>42</v>
       </c>
@@ -9262,8 +10513,11 @@
       <c r="E417" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F417" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
         <v>43</v>
       </c>
@@ -9279,8 +10533,11 @@
       <c r="E418" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F418" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <v>44</v>
       </c>
@@ -9296,8 +10553,11 @@
       <c r="E419" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F419" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5">
         <v>45</v>
       </c>
@@ -9313,8 +10573,11 @@
       <c r="E420" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F420" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
         <v>46</v>
       </c>
@@ -9330,8 +10593,11 @@
       <c r="E421" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F421" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
         <v>47</v>
       </c>
@@ -9347,8 +10613,11 @@
       <c r="E422" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F422" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5">
         <v>48</v>
       </c>
@@ -9364,8 +10633,11 @@
       <c r="E423" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F423" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
         <v>49</v>
       </c>
@@ -9381,8 +10653,11 @@
       <c r="E424" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F424" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <v>50</v>
       </c>
@@ -9398,8 +10673,11 @@
       <c r="E425" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F425" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5">
         <v>51</v>
       </c>
@@ -9415,8 +10693,11 @@
       <c r="E426" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F426" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
         <v>52</v>
       </c>
@@ -9432,8 +10713,11 @@
       <c r="E427" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F427" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
         <v>53</v>
       </c>
@@ -9449,8 +10733,11 @@
       <c r="E428" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F428" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5">
         <v>54</v>
       </c>
@@ -9466,8 +10753,11 @@
       <c r="E429" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F429" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
         <v>55</v>
       </c>
@@ -9483,8 +10773,11 @@
       <c r="E430" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F430" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>56</v>
       </c>
@@ -9500,8 +10793,11 @@
       <c r="E431" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F431" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5">
         <v>57</v>
       </c>
@@ -9517,8 +10813,11 @@
       <c r="E432" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F432" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
         <v>58</v>
       </c>
@@ -9534,8 +10833,11 @@
       <c r="E433" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F433" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
         <v>59</v>
       </c>
@@ -9551,8 +10853,11 @@
       <c r="E434" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F434" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5">
         <v>60</v>
       </c>
@@ -9568,8 +10873,11 @@
       <c r="E435" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F435" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
         <v>61</v>
       </c>
@@ -9585,8 +10893,11 @@
       <c r="E436" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F436" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <v>62</v>
       </c>
@@ -9602,8 +10913,11 @@
       <c r="E437" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F437" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5">
         <v>63</v>
       </c>
@@ -9619,8 +10933,11 @@
       <c r="E438" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F438" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>64</v>
       </c>
@@ -9636,8 +10953,11 @@
       <c r="E439" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F439" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
         <v>65</v>
       </c>
@@ -9653,8 +10973,11 @@
       <c r="E440" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F440" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5">
         <v>66</v>
       </c>
@@ -9670,8 +10993,11 @@
       <c r="E441" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F441" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
         <v>67</v>
       </c>
@@ -9687,8 +11013,11 @@
       <c r="E442" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F442" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <v>68</v>
       </c>
@@ -9704,8 +11033,11 @@
       <c r="E443" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F443" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5">
         <v>69</v>
       </c>
@@ -9721,8 +11053,11 @@
       <c r="E444" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F444" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
         <v>70</v>
       </c>
@@ -9738,8 +11073,11 @@
       <c r="E445" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F445" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
         <v>71</v>
       </c>
@@ -9755,8 +11093,11 @@
       <c r="E446" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F446" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5">
         <v>72</v>
       </c>
@@ -9772,8 +11113,11 @@
       <c r="E447" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F447" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
         <v>73</v>
       </c>
@@ -9789,8 +11133,11 @@
       <c r="E448" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F448" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>74</v>
       </c>
@@ -9806,8 +11153,11 @@
       <c r="E449" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F449" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5">
         <v>75</v>
       </c>
@@ -9823,8 +11173,11 @@
       <c r="E450" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F450" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
         <v>76</v>
       </c>
@@ -9840,8 +11193,11 @@
       <c r="E451" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F451" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
         <v>77</v>
       </c>
@@ -9857,8 +11213,11 @@
       <c r="E452" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F452" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5">
         <v>78</v>
       </c>
@@ -9874,8 +11233,11 @@
       <c r="E453" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F453" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
         <v>79</v>
       </c>
@@ -9891,8 +11253,11 @@
       <c r="E454" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F454" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <v>80</v>
       </c>
@@ -9908,8 +11273,11 @@
       <c r="E455" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F455" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5">
         <v>81</v>
       </c>
@@ -9925,8 +11293,11 @@
       <c r="E456" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F456" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
         <v>82</v>
       </c>
@@ -9942,8 +11313,11 @@
       <c r="E457" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F457" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
         <v>83</v>
       </c>
@@ -9959,8 +11333,11 @@
       <c r="E458" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F458" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5">
         <v>84</v>
       </c>
@@ -9976,8 +11353,11 @@
       <c r="E459" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F459" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
         <v>85</v>
       </c>
@@ -9993,8 +11373,11 @@
       <c r="E460" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F460" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>86</v>
       </c>
@@ -10010,8 +11393,11 @@
       <c r="E461" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F461" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5">
         <v>87</v>
       </c>
@@ -10027,8 +11413,11 @@
       <c r="E462" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F462" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
         <v>88</v>
       </c>
@@ -10044,8 +11433,11 @@
       <c r="E463" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F463" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
         <v>89</v>
       </c>
@@ -10061,8 +11453,11 @@
       <c r="E464" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F464" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5">
         <v>90</v>
       </c>
@@ -10078,8 +11473,11 @@
       <c r="E465" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F465" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
         <v>91</v>
       </c>
@@ -10095,8 +11493,11 @@
       <c r="E466" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F466" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>92</v>
       </c>
@@ -10112,8 +11513,11 @@
       <c r="E467" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F467" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="5">
         <v>93</v>
       </c>
@@ -10129,8 +11533,11 @@
       <c r="E468" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F468" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
         <v>94</v>
       </c>
@@ -10146,8 +11553,11 @@
       <c r="E469" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F469" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
         <v>95</v>
       </c>
@@ -10163,8 +11573,11 @@
       <c r="E470" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F470" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="5">
         <v>96</v>
       </c>
@@ -10180,8 +11593,11 @@
       <c r="E471" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F471" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
         <v>97</v>
       </c>
@@ -10197,8 +11613,11 @@
       <c r="E472" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F472" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <v>98</v>
       </c>
@@ -10214,8 +11633,11 @@
       <c r="E473" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F473" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="5">
         <v>99</v>
       </c>
@@ -10231,8 +11653,11 @@
       <c r="E474" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F474" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
         <v>100</v>
       </c>
@@ -10248,8 +11673,11 @@
       <c r="E475" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F475" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
         <v>101</v>
       </c>
@@ -10265,8 +11693,11 @@
       <c r="E476" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F476" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="5">
         <v>102</v>
       </c>
@@ -10282,8 +11713,11 @@
       <c r="E477" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F477" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
         <v>103</v>
       </c>
@@ -10299,8 +11733,11 @@
       <c r="E478" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F478" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <v>104</v>
       </c>
@@ -10316,8 +11753,11 @@
       <c r="E479" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F479" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="5">
         <v>105</v>
       </c>
@@ -10333,8 +11773,11 @@
       <c r="E480" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F480" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
         <v>106</v>
       </c>
@@ -10350,8 +11793,11 @@
       <c r="E481" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F481" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
         <v>107</v>
       </c>
@@ -10367,8 +11813,11 @@
       <c r="E482" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F482" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5">
         <v>108</v>
       </c>
@@ -10384,8 +11833,11 @@
       <c r="E483" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F483" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
         <v>109</v>
       </c>
@@ -10401,8 +11853,11 @@
       <c r="E484" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F484" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <v>110</v>
       </c>
@@ -10418,8 +11873,11 @@
       <c r="E485" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F485" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5">
         <v>111</v>
       </c>
@@ -10435,8 +11893,11 @@
       <c r="E486" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F486" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
         <v>112</v>
       </c>
@@ -10452,8 +11913,11 @@
       <c r="E487" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F487" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
         <v>113</v>
       </c>
@@ -10469,8 +11933,11 @@
       <c r="E488" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F488" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="5">
         <v>114</v>
       </c>
@@ -10486,8 +11953,11 @@
       <c r="E489" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F489" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
         <v>115</v>
       </c>
@@ -10503,8 +11973,11 @@
       <c r="E490" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F490" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>116</v>
       </c>
@@ -10520,8 +11993,11 @@
       <c r="E491" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F491" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="5">
         <v>117</v>
       </c>
@@ -10537,8 +12013,11 @@
       <c r="E492" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F492" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
         <v>118</v>
       </c>
@@ -10554,8 +12033,11 @@
       <c r="E493" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F493" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
         <v>119</v>
       </c>
@@ -10571,8 +12053,11 @@
       <c r="E494" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F494" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5">
         <v>120</v>
       </c>
@@ -10588,8 +12073,11 @@
       <c r="E495" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F495" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
         <v>121</v>
       </c>
@@ -10605,8 +12093,11 @@
       <c r="E496" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F496" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>122</v>
       </c>
@@ -10622,8 +12113,11 @@
       <c r="E497" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F497" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="5">
         <v>123</v>
       </c>
@@ -10639,8 +12133,11 @@
       <c r="E498" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F498" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>124</v>
       </c>
@@ -10656,8 +12153,11 @@
       <c r="E499" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F499" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
         <v>125</v>
       </c>
@@ -10673,8 +12173,11 @@
       <c r="E500" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F500" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="5">
         <v>126</v>
       </c>
@@ -10690,8 +12193,11 @@
       <c r="E501" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F501" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
         <v>127</v>
       </c>
@@ -10707,8 +12213,11 @@
       <c r="E502" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F502" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
         <v>128</v>
       </c>
@@ -10724,8 +12233,11 @@
       <c r="E503" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F503" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="5">
         <v>129</v>
       </c>
@@ -10741,8 +12253,11 @@
       <c r="E504" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F504" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>130</v>
       </c>
@@ -10758,8 +12273,11 @@
       <c r="E505" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F505" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
         <v>131</v>
       </c>
@@ -10775,8 +12293,11 @@
       <c r="E506" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F506" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="5">
         <v>132</v>
       </c>
@@ -10792,8 +12313,11 @@
       <c r="E507" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F507" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A508" s="6">
         <v>133</v>
       </c>
@@ -10809,8 +12333,11 @@
       <c r="E508" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F508" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
         <v>134</v>
       </c>
@@ -10826,8 +12353,11 @@
       <c r="E509" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F509" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="5">
         <v>135</v>
       </c>
@@ -10843,8 +12373,11 @@
       <c r="E510" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F510" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A511" s="6">
         <v>136</v>
       </c>
@@ -10860,8 +12393,11 @@
       <c r="E511" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F511" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
         <v>137</v>
       </c>
@@ -10877,8 +12413,11 @@
       <c r="E512" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F512" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="5">
         <v>138</v>
       </c>
@@ -10894,8 +12433,11 @@
       <c r="E513" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F513" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A514" s="6">
         <v>139</v>
       </c>
@@ -10911,8 +12453,11 @@
       <c r="E514" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F514" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
         <v>140</v>
       </c>
@@ -10928,8 +12473,11 @@
       <c r="E515" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F515" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="5">
         <v>141</v>
       </c>
@@ -10945,8 +12493,11 @@
       <c r="E516" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F516" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A517" s="6">
         <v>142</v>
       </c>
@@ -10962,8 +12513,11 @@
       <c r="E517" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F517" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
         <v>143</v>
       </c>
@@ -10979,8 +12533,11 @@
       <c r="E518" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F518" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="5">
         <v>144</v>
       </c>
@@ -10996,8 +12553,11 @@
       <c r="E519" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F519" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A520" s="6">
         <v>145</v>
       </c>
@@ -11013,8 +12573,11 @@
       <c r="E520" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F520" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
         <v>146</v>
       </c>
@@ -11030,8 +12593,11 @@
       <c r="E521" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F521" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5">
         <v>147</v>
       </c>
@@ -11047,8 +12613,11 @@
       <c r="E522" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F522" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A523" s="6">
         <v>148</v>
       </c>
@@ -11064,8 +12633,11 @@
       <c r="E523" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F523" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
         <v>149</v>
       </c>
@@ -11081,8 +12653,11 @@
       <c r="E524" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F524" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5">
         <v>150</v>
       </c>
@@ -11098,8 +12673,11 @@
       <c r="E525" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F525" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A526" s="6">
         <v>151</v>
       </c>
@@ -11115,8 +12693,11 @@
       <c r="E526" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F526" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
         <v>152</v>
       </c>
@@ -11132,8 +12713,11 @@
       <c r="E527" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F527" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5">
         <v>153</v>
       </c>
@@ -11149,8 +12733,11 @@
       <c r="E528" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F528" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A529" s="6">
         <v>154</v>
       </c>
@@ -11166,8 +12753,11 @@
       <c r="E529" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F529" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
         <v>155</v>
       </c>
@@ -11183,8 +12773,11 @@
       <c r="E530" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F530" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="5">
         <v>156</v>
       </c>
@@ -11200,8 +12793,11 @@
       <c r="E531" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F531" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A532" s="6">
         <v>157</v>
       </c>
@@ -11217,8 +12813,11 @@
       <c r="E532" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F532" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
         <v>158</v>
       </c>
@@ -11234,8 +12833,11 @@
       <c r="E533" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F533" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="5">
         <v>159</v>
       </c>
@@ -11251,8 +12853,11 @@
       <c r="E534" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F534" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A535" s="6">
         <v>160</v>
       </c>
@@ -11268,8 +12873,11 @@
       <c r="E535" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F535" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
         <v>161</v>
       </c>
@@ -11285,8 +12893,11 @@
       <c r="E536" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F536" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5">
         <v>162</v>
       </c>
@@ -11302,8 +12913,11 @@
       <c r="E537" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F537" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A538" s="6">
         <v>163</v>
       </c>
@@ -11319,8 +12933,11 @@
       <c r="E538" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F538" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
         <v>164</v>
       </c>
@@ -11336,8 +12953,11 @@
       <c r="E539" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F539" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5">
         <v>165</v>
       </c>
@@ -11353,8 +12973,11 @@
       <c r="E540" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F540" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A541" s="6">
         <v>166</v>
       </c>
@@ -11370,8 +12993,11 @@
       <c r="E541" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F541" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
         <v>167</v>
       </c>
@@ -11387,8 +13013,11 @@
       <c r="E542" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F542" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="5">
         <v>168</v>
       </c>
@@ -11404,8 +13033,11 @@
       <c r="E543" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F543" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A544" s="6">
         <v>169</v>
       </c>
@@ -11421,8 +13053,11 @@
       <c r="E544" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F544" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
         <v>170</v>
       </c>
@@ -11438,8 +13073,11 @@
       <c r="E545" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F545" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="5">
         <v>171</v>
       </c>
@@ -11455,8 +13093,11 @@
       <c r="E546" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F546" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A547" s="6">
         <v>172</v>
       </c>
@@ -11472,8 +13113,11 @@
       <c r="E547" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F547" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
         <v>173</v>
       </c>
@@ -11489,8 +13133,11 @@
       <c r="E548" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F548" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5">
         <v>174</v>
       </c>
@@ -11506,8 +13153,11 @@
       <c r="E549" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F549" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A550" s="6">
         <v>175</v>
       </c>
@@ -11523,8 +13173,11 @@
       <c r="E550" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F550" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
         <v>176</v>
       </c>
@@ -11540,8 +13193,11 @@
       <c r="E551" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F551" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="5">
         <v>177</v>
       </c>
@@ -11557,8 +13213,11 @@
       <c r="E552" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F552" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A553" s="6">
         <v>178</v>
       </c>
@@ -11574,8 +13233,11 @@
       <c r="E553" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F553" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
         <v>179</v>
       </c>
@@ -11591,8 +13253,11 @@
       <c r="E554" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F554" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="5">
         <v>180</v>
       </c>
@@ -11608,8 +13273,11 @@
       <c r="E555" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F555" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A556" s="6">
         <v>181</v>
       </c>
@@ -11625,8 +13293,11 @@
       <c r="E556" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F556" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
         <v>182</v>
       </c>
@@ -11642,8 +13313,11 @@
       <c r="E557" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F557" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="5">
         <v>183</v>
       </c>
@@ -11659,8 +13333,11 @@
       <c r="E558" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F558" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A559" s="6">
         <v>184</v>
       </c>
@@ -11676,8 +13353,11 @@
       <c r="E559" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F559" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
         <v>185</v>
       </c>
@@ -11693,8 +13373,11 @@
       <c r="E560" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F560" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="5">
         <v>186</v>
       </c>
@@ -11710,8 +13393,11 @@
       <c r="E561" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F561" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A562" s="6">
         <v>187</v>
       </c>
@@ -11727,8 +13413,11 @@
       <c r="E562" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F562" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
         <v>188</v>
       </c>
@@ -11744,8 +13433,11 @@
       <c r="E563" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F563" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="5">
         <v>189</v>
       </c>
@@ -11761,8 +13453,11 @@
       <c r="E564" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F564" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A565" s="6">
         <v>190</v>
       </c>
@@ -11777,6 +13472,9 @@
       </c>
       <c r="E565" s="2" t="s">
         <v>575</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
